--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560356/JX560356_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560356/JX560356_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89326090067</v>
+        <v>45441.83351668528</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1894_1898insggcc']</t>
+          <t>['1904_2024del', '1720_1774instttatggtgagattgatcgagggggcctgttcttgtatctgccggtgctatggt', '1823_1929del', '1679_1785del', '1923_1957del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89326092968</v>
+        <v>45441.83351672</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['647g&gt;a']</t>
+          <t>['676_692del', '681_766insttttggtcactgtagttggtagtaatatttgatgattgagcgctcactggaacctaaaaaggttacttttcgtcaattcgcctac', '607_740insgtctctgccgactaatcattaaggcatgtcacgagaggattaccactggcaaggctactaaattcttaaaatgcgtaaagataggaggggttggaacagctgacaacctatgattgagcgtgtcaatctcgat', '703_737del', '613_703del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89326095285</v>
+        <v>45441.83351673735</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3561_3562del']</t>
+          <t>['3564_3710insatctctgtgatggaaagggaacggcatgattctaaataatttgaagccacggagttttgatcggggacagaaatgaactggagctagagtacatcttggcctgcgtccagggcatttccgaagggccagctaaacgcgcaggggat', '3541_3592del', '3527_3547inscctactcaatcctctagcaa', '3483_3562del', '3530_3540insatcgcgaagc']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89326097599</v>
+        <v>45441.83351687407</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1871_1871del']</t>
+          <t>['1765_1786insagttaccgtcgtttcctccag', '1770_1864del', '1798_1906insattctgtatacgcatacaggggctacgaaggcgaggtttttccgactacaatggcttagacgtcgtcttctgtgttcggtccaagtgcccgccacagtaccggtctcg', '1802_1898insttgacctctacaagcgcgatggactacagggcagtcgcaaattaaacttttcgggcctgccgcctccgtagtatcacggaagaaatttctcccaga', '1704_1738del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['692t&gt;c']</t>
+          <t>['697_843insgcaacatcttggcgtctttcgcgggattgacatggtgcacgtatgagcctagagcataccttaacgttctatctgaagtaggaggcacgtccactcctgcctttattgttagctagggtcccttgagaatacataacggacacaat', '617_646insatctagcgagctttgttccaattagttac', '616_755del', '638_712insactcgcgccgcgtaggatacccttccgggacgtgtagaaacctacacctgccccagaatataactccaacgtga', '659_766del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89326099333</v>
+        <v>45441.83351689722</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1866c&gt;t']</t>
+          <t>['1881_1900del', '1815_1926inscacgaagctggatcgtggcaaaactcggttactaaatcctatttaaggctaacgccgtttcaatcgtatgctttgtatcctggacggcatccgatcaatggcagttcagtt', '1749_1886insggcttttgatgtcaaggcctgttcaagagttgaggccttgtgcgggagtgtgtttatgtatgaaacagacgcactcgcttcagtagcactcagcagttgtcgactccgtagcataacagggtaattgctgctctcaa', '1908_1979instaggtggtgaatggcgcgcgtgtatccgcgagctatgttagaaccttgagactatcggaaacaatgtacat', '1709_1801del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3495_3499insgggg']</t>
+          <t>['3511_3650insaagtatagaaataaggacgtttaggaatctaggcctagctgatacaattgtttcaggcattaccggtagttcatccccgcacggagcactcgactaccggcatccccaattgtgaaaggtaagctgcagcattgctcgt', '3520_3585del', '3518_3593del', '3503_3588del', '3489_3520insgcccctacagtgacaacccgaatgcgctacg']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89326101648</v>
+        <v>45441.83351692037</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['617_618insg']</t>
+          <t>['614_625insgtataacgtta', '602_652del', '677_709insttagtaatctggcggagatgatgacgccctgc', '696_743instcagtggccgatgagatgactattccctttccgactcgttagcagtt', '626_669del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3490c&gt;t']</t>
+          <t>['3477_3596del', '3518_3663del', '3555_3573insgttcataatcctagaact', '3526_3664del', '3532_3605instggcgatcctgtgacttggtatgcgatcgcggtctttcgaagaatggataagccaagtgcgaagtcgtgatac']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89326103962</v>
+        <v>45441.83351694351</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1886_1889insctg']</t>
+          <t>['1889_1940del', '1907_2027del', '1706_1716insatcgatgttg', '1747_1852instgaacacgtaccggagttttatcctctgtttgtcgatcctttccaatctgattatgggaggaacccatggggttggcgctctgcacgccctcggaccaccgtagg', '1680_1772del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['688t&gt;a']</t>
+          <t>['703_729insgccggcgccaattttataagttcttg', '669_783inscagcggcaggccggggggtccataatcccccacgtgggccgctcggctgtgattatgcccacgatgattcgtaattcctacttggtcagccacccaggatatacccacctaggc', '679_771del', '688_701instgcagcgtgtaga', '696_727del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3472_3475del']</t>
+          <t>['3531_3541insacccgtaagg', '3541_3671instaggtggtcggttcgggcgtatcaaggtcgatccaggaagactgggttggaatccacggcgcaaagtcatgtacaatatagaatataaggaattatggcccagtattggtgacatcgcttacgattcatc', '3557_3623del', '3496_3602del', '3526_3653insaagcatgcgatatagatcaggaccacaggcaaccctacggtgtgacagcatcgttctggctcgaagcgctcaagatctaggcttcagacatacagagtcgagcgatcactagatatcttttactcgt']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89326105698</v>
+        <v>45441.83351696667</v>
       </c>
     </row>
   </sheetData>
